--- a/budget_tracker_1/media/uploads/Indiv_hitesh25_Data.xlsx
+++ b/budget_tracker_1/media/uploads/Indiv_hitesh25_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>loans</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>maintainance</t>
+  </si>
+  <si>
+    <t>78000</t>
+  </si>
+  <si>
+    <t>15200</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +432,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/budget_tracker_1/media/uploads/Indiv_hitesh25_Data.xlsx
+++ b/budget_tracker_1/media/uploads/Indiv_hitesh25_Data.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expenses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="budget" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expenses" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>loans</t>
   </si>
@@ -50,10 +50,7 @@
     <t>maintainance</t>
   </si>
   <si>
-    <t>78000</t>
-  </si>
-  <si>
-    <t>15200</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -94,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -389,15 +386,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,16 +428,563 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5800</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>142600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43250</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>125850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7600</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44520</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1630</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>127550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42361</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>151411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5980</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17530</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>148010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5950</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39521</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12450</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>141721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5632</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37421</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24568</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>156821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5981</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26547</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>168528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7631</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>143381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>134924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>